--- a/08_Auslegungen/00_Encoder_Speisung.xlsx
+++ b/08_Auslegungen/00_Encoder_Speisung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PraxismodulHSLU\Praxismodul\08_Auslegungen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\PraxismodulHSLU\Praxismodul\08_Auslegungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3479A39-391F-48AA-8774-19484334519B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC8846E-6F74-4D1D-B470-B28EA5A1C871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="-240" windowWidth="29280" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="135" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>R_Encoder</t>
   </si>
@@ -87,13 +87,19 @@
   </si>
   <si>
     <t>Uenc@5.3V</t>
+  </si>
+  <si>
+    <t>Rds_on USB Switch</t>
+  </si>
+  <si>
+    <t>OHM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,14 +111,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,9 +198,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -212,12 +209,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,19 +495,19 @@
   <dimension ref="B10:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.41796875" customWidth="1"/>
-    <col min="2" max="3" width="1.578125" customWidth="1"/>
-    <col min="5" max="5" width="14.578125" customWidth="1"/>
-    <col min="19" max="19" width="11.734375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="3" width="1.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="5:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" t="s">
+    <row r="10" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
         <v>3</v>
       </c>
       <c r="I10">
@@ -545,8 +541,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="5:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="E11" t="s">
+    <row r="11" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="F11">
@@ -557,35 +553,35 @@
         <v>4</v>
       </c>
       <c r="I11">
-        <f>2*I10*F11</f>
+        <f>2*I10*$F11</f>
         <v>0.1784</v>
       </c>
       <c r="J11">
-        <f>2*J10*F11</f>
+        <f t="shared" ref="J11:P11" si="0">2*J10*$F11</f>
         <v>0.35680000000000001</v>
       </c>
       <c r="K11">
-        <f>2*K10*F11</f>
+        <f t="shared" si="0"/>
         <v>0.53520000000000001</v>
       </c>
       <c r="L11">
-        <f>2*L10*F11</f>
+        <f t="shared" si="0"/>
         <v>0.71360000000000001</v>
       </c>
       <c r="M11">
-        <f>2*M10*F11</f>
+        <f t="shared" si="0"/>
         <v>0.89200000000000002</v>
       </c>
       <c r="N11">
-        <f>2*N10*F11</f>
+        <f t="shared" si="0"/>
         <v>1.784</v>
       </c>
       <c r="O11">
-        <f>2*O10*F11</f>
+        <f t="shared" si="0"/>
         <v>3.5680000000000001</v>
       </c>
       <c r="P11">
-        <f>2*P10*F11</f>
+        <f t="shared" si="0"/>
         <v>5.3520000000000003</v>
       </c>
       <c r="S11" t="s">
@@ -595,7 +591,16 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="5:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>0.1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
       <c r="S12" t="s">
         <v>7</v>
       </c>
@@ -604,41 +609,41 @@
         <v>2.6666666666666668E-2</v>
       </c>
     </row>
-    <row r="13" spans="5:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="E13" t="s">
+    <row r="13" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="I13">
-        <f>I11*T15</f>
-        <v>2.9436E-2</v>
+        <f>(I11+$F12)*$T15</f>
+        <v>4.5935999999999998E-2</v>
       </c>
       <c r="J13">
-        <f>J11*T15</f>
-        <v>5.8872000000000001E-2</v>
+        <f t="shared" ref="J13:P13" si="1">(J11+$F12)*$T15</f>
+        <v>7.5371999999999995E-2</v>
       </c>
       <c r="K13">
-        <f>K11*T15</f>
-        <v>8.8308000000000011E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.104808</v>
       </c>
       <c r="L13">
-        <f>L11*T15</f>
-        <v>0.117744</v>
+        <f t="shared" si="1"/>
+        <v>0.134244</v>
       </c>
       <c r="M13">
-        <f>M11*T15</f>
-        <v>0.14718000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.16368000000000002</v>
       </c>
       <c r="N13">
-        <f>N11*T15</f>
-        <v>0.29436000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.31086000000000003</v>
       </c>
       <c r="O13">
-        <f>O11*T15</f>
-        <v>0.58872000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.60522000000000009</v>
       </c>
       <c r="P13">
-        <f>P11*T15</f>
-        <v>0.88308000000000009</v>
+        <f t="shared" si="1"/>
+        <v>0.89958000000000005</v>
       </c>
       <c r="S13" t="s">
         <v>9</v>
@@ -648,7 +653,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="14" spans="5:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="4:20" x14ac:dyDescent="0.25">
       <c r="S14" t="s">
         <v>10</v>
       </c>
@@ -657,41 +662,41 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="5:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="E15" s="7" t="s">
+    <row r="15" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I15">
         <f>5-I13</f>
-        <v>4.9705640000000004</v>
+        <v>4.9540639999999998</v>
       </c>
       <c r="J15">
-        <f t="shared" ref="J15:P15" si="0">5-J13</f>
-        <v>4.941128</v>
+        <f t="shared" ref="J15:P15" si="2">5-J13</f>
+        <v>4.9246280000000002</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
-        <v>4.9116920000000004</v>
+        <f t="shared" si="2"/>
+        <v>4.8951919999999998</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
-        <v>4.8822559999999999</v>
+        <f t="shared" si="2"/>
+        <v>4.8657560000000002</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
-        <v>4.8528200000000004</v>
-      </c>
-      <c r="N15" s="9">
-        <f t="shared" si="0"/>
-        <v>4.7056399999999998</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="0"/>
-        <v>4.4112799999999996</v>
-      </c>
-      <c r="P15" s="8">
-        <f t="shared" si="0"/>
-        <v>4.1169200000000004</v>
+        <f t="shared" si="2"/>
+        <v>4.8363199999999997</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="2"/>
+        <v>4.6891400000000001</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" si="2"/>
+        <v>4.3947799999999999</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1004199999999997</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>11</v>
@@ -701,186 +706,181 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="16" spans="5:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="E16" s="7" t="s">
+    <row r="16" spans="4:20" x14ac:dyDescent="0.25">
+      <c r="G16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I16">
         <f>5.1-I13</f>
-        <v>5.0705640000000001</v>
+        <v>5.0540639999999994</v>
       </c>
       <c r="J16">
-        <f t="shared" ref="J16:P16" si="1">5.1-J13</f>
-        <v>5.0411279999999996</v>
+        <f t="shared" ref="J16:P16" si="3">5.1-J13</f>
+        <v>5.0246279999999999</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
-        <v>5.011692</v>
+        <f t="shared" si="3"/>
+        <v>4.9951919999999994</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
-        <v>4.9822559999999996</v>
+        <f t="shared" si="3"/>
+        <v>4.9657559999999998</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
-        <v>4.95282</v>
-      </c>
-      <c r="N16" s="9">
-        <f t="shared" si="1"/>
-        <v>4.8056399999999995</v>
-      </c>
-      <c r="O16" s="8">
-        <f t="shared" si="1"/>
-        <v>4.5112799999999993</v>
-      </c>
-      <c r="P16" s="8">
-        <f t="shared" si="1"/>
-        <v>4.21692</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="E17" s="7" t="s">
+        <f t="shared" si="3"/>
+        <v>4.9363199999999994</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="3"/>
+        <v>4.7891399999999997</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" si="3"/>
+        <v>4.4947799999999996</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" si="3"/>
+        <v>4.2004199999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G17" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I17">
         <f>5.2-I13</f>
-        <v>5.1705640000000006</v>
+        <v>5.154064</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17:P17" si="2">5.2-J13</f>
-        <v>5.1411280000000001</v>
+        <f t="shared" ref="J17:P17" si="4">5.2-J13</f>
+        <v>5.1246280000000004</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
-        <v>5.1116920000000006</v>
+        <f t="shared" si="4"/>
+        <v>5.0951919999999999</v>
       </c>
       <c r="L17">
-        <f t="shared" si="2"/>
-        <v>5.0822560000000001</v>
+        <f t="shared" si="4"/>
+        <v>5.0657560000000004</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
-        <v>5.0528200000000005</v>
+        <f t="shared" si="4"/>
+        <v>5.0363199999999999</v>
       </c>
       <c r="N17">
-        <f t="shared" si="2"/>
-        <v>4.90564</v>
-      </c>
-      <c r="O17" s="9">
-        <f t="shared" si="2"/>
-        <v>4.6112799999999998</v>
-      </c>
-      <c r="P17" s="8">
-        <f t="shared" si="2"/>
-        <v>4.3169199999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>4.8891400000000003</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="4"/>
+        <v>4.5947800000000001</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" si="4"/>
+        <v>4.3004199999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="E18" s="7" t="s">
+      <c r="G18" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I18">
         <f>5.3-I13</f>
-        <v>5.2705640000000002</v>
+        <v>5.2540639999999996</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:P18" si="3">5.3-J13</f>
-        <v>5.2411279999999998</v>
+        <f t="shared" ref="J18:P18" si="5">5.3-J13</f>
+        <v>5.224628</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
-        <v>5.2116920000000002</v>
+        <f t="shared" si="5"/>
+        <v>5.1951919999999996</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
-        <v>5.1822559999999998</v>
+        <f t="shared" si="5"/>
+        <v>5.165756</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
-        <v>5.1528200000000002</v>
+        <f t="shared" si="5"/>
+        <v>5.1363199999999996</v>
       </c>
       <c r="N18">
-        <f t="shared" si="3"/>
-        <v>5.0056399999999996</v>
-      </c>
-      <c r="O18" s="9">
-        <f t="shared" si="3"/>
-        <v>4.7112799999999995</v>
-      </c>
-      <c r="P18" s="8">
-        <f t="shared" si="3"/>
-        <v>4.4169199999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="5"/>
+        <v>4.9891399999999999</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="5"/>
+        <v>4.6947799999999997</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="5"/>
+        <v>4.4004199999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
       <c r="D31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" xr:uid="{1D15CC2A-7F7C-4C94-B22B-DD01A452D5C1}"/>
-    <hyperlink ref="E16" r:id="rId2" xr:uid="{7725A537-8273-426D-BAAC-FEFDA54F4256}"/>
-    <hyperlink ref="E17" r:id="rId3" xr:uid="{2D933718-4548-4315-A15F-61E40683A5AA}"/>
-    <hyperlink ref="E18" r:id="rId4" xr:uid="{5CD2E05E-027E-469A-8537-1CBC64D41CB8}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
